--- a/data/trans_dic/P33_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1238459896390992</v>
+        <v>0.1197938947935589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2079117650049639</v>
+        <v>0.2120769881905306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2730487592295693</v>
+        <v>0.2741626607389294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2599568531791524</v>
+        <v>0.260196308839622</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1089513583045246</v>
+        <v>0.1155034773505498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2941944006498315</v>
+        <v>0.3033002552544712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3077807737279996</v>
+        <v>0.3095436243109861</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2996109416364253</v>
+        <v>0.2947459356687571</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1299441136700489</v>
+        <v>0.1292227467045111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2717003353118393</v>
+        <v>0.2681105136643159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3062643521157395</v>
+        <v>0.3064146092726128</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2908436111640149</v>
+        <v>0.2884569927289609</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2178492326925509</v>
+        <v>0.2141366407028895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3158446920646851</v>
+        <v>0.3140588249836321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3908498118471591</v>
+        <v>0.3861750268153573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3642259912778854</v>
+        <v>0.3646307550046267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2077599034524622</v>
+        <v>0.2074518519401563</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.421459769823216</v>
+        <v>0.4229168648648</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4236041069775364</v>
+        <v>0.4249921378850605</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3791936127363268</v>
+        <v>0.3775322498213415</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1981745541570908</v>
+        <v>0.1974762536496243</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3535433943015779</v>
+        <v>0.3536061847600244</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3867291112701131</v>
+        <v>0.3865763168071029</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3561148595128787</v>
+        <v>0.3559913854290221</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3170098196632987</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2941245008394984</v>
+        <v>0.2941245008394983</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1972004670295492</v>
+        <v>0.1985528099722126</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2355373905083895</v>
+        <v>0.2395356602914594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2252113648958021</v>
+        <v>0.2238885774825337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2301250240266267</v>
+        <v>0.2237814578310717</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3000256624079937</v>
+        <v>0.3052770634598114</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3036447368914745</v>
+        <v>0.3118246166914518</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.324798178448873</v>
+        <v>0.3283216339647969</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2760458076153031</v>
+        <v>0.2720007315538648</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2606435397844752</v>
+        <v>0.2611234187184688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2849554145290413</v>
+        <v>0.2872499599406724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2886968757439108</v>
+        <v>0.2855577092624917</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2649455259368538</v>
+        <v>0.2668046068929884</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2770935469997176</v>
+        <v>0.2786860941932279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3186221162497042</v>
+        <v>0.3261045592990992</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3032868757152088</v>
+        <v>0.3067576745598484</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3303029469823502</v>
+        <v>0.3282397312327254</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3859316281049462</v>
+        <v>0.3884907167197277</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3981696029397013</v>
+        <v>0.3990970297255879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4141563181265899</v>
+        <v>0.414062366403026</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3521339932957058</v>
+        <v>0.3475864959080244</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3196373086175064</v>
+        <v>0.3179659053027284</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.346762219125837</v>
+        <v>0.3470231885321775</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3464662377564913</v>
+        <v>0.346063904639598</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3278357806563187</v>
+        <v>0.3263264540989239</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1736185533670227</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2959387355763784</v>
+        <v>0.2959387355763785</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08964041830796902</v>
+        <v>0.09301838709884823</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2500254094450555</v>
+        <v>0.2515626241462348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09796645979791728</v>
+        <v>0.09427534173186024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2222607146724332</v>
+        <v>0.2252473796492641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.160910199885789</v>
+        <v>0.1615126141445886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2768840673587276</v>
+        <v>0.2755665881737678</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1747999383912316</v>
+        <v>0.1732703034728883</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2785855312459745</v>
+        <v>0.2767314300150214</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1384917494955097</v>
+        <v>0.1386279956925902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2766185044366918</v>
+        <v>0.2778690431800134</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1460653190574853</v>
+        <v>0.1453043260455047</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2673290736352734</v>
+        <v>0.2664601931307746</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1680846366816639</v>
+        <v>0.1720749376990486</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3526707651733211</v>
+        <v>0.356897145315266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1711265784663609</v>
+        <v>0.1676043674235953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3123114998250496</v>
+        <v>0.3165207559868166</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2473003357312723</v>
+        <v>0.2472339881850644</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3816603551359832</v>
+        <v>0.3772186456756957</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2641960179839867</v>
+        <v>0.2628283866108738</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3586878813953808</v>
+        <v>0.3562799875072703</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1963250878355871</v>
+        <v>0.1987399327277665</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3500984703787102</v>
+        <v>0.3501447728068129</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2055685315108154</v>
+        <v>0.205907241966606</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3278419310303521</v>
+        <v>0.3289236792870396</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09782450510899281</v>
+        <v>0.09936471692250179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2729639570638616</v>
+        <v>0.2701969708300943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.294370293327331</v>
+        <v>0.2910445497015499</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2203275329755944</v>
+        <v>0.2228888200579058</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1460726791231601</v>
+        <v>0.1471729212302724</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3991125245192359</v>
+        <v>0.3904579631038934</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3652636843329097</v>
+        <v>0.3661363048605008</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3388755845644574</v>
+        <v>0.3375713146810504</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.131616402461977</v>
+        <v>0.1351620242082942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3489599788602179</v>
+        <v>0.3479157362661734</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3447729581361486</v>
+        <v>0.3459765564683754</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2999461614445996</v>
+        <v>0.2975838612613914</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.171046635645211</v>
+        <v>0.1728508158831742</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.370076638552168</v>
+        <v>0.3719140943687602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3965469508010798</v>
+        <v>0.3995757834183579</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3379176475226453</v>
+        <v>0.3403796151786047</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2241190048172525</v>
+        <v>0.2251673041679159</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4969641019928412</v>
+        <v>0.4983213402532963</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4679731468003749</v>
+        <v>0.4709479806289661</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4330451895402708</v>
+        <v>0.4341652733443868</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1852081642942556</v>
+        <v>0.1893755349119971</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4197925135908169</v>
+        <v>0.420185583323922</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.416607769375834</v>
+        <v>0.416977846295171</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3728725832461053</v>
+        <v>0.3700937855638272</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.08376157305084682</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4442342579741792</v>
+        <v>0.4442342579741791</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2748464210536959</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1903570242448564</v>
+        <v>0.1951783801240713</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2502394473504578</v>
+        <v>0.2512588934043407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04720112670423018</v>
+        <v>0.04675595654908398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2729645857179218</v>
+        <v>0.2797571524323345</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.23696546432444</v>
+        <v>0.2352082741356674</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3305682532710413</v>
+        <v>0.337159973771348</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05087790070821178</v>
+        <v>0.05082709739976338</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4006088008672511</v>
+        <v>0.4019312281476106</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2307283242829857</v>
+        <v>0.2334975837533012</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3113080465064355</v>
+        <v>0.3125067341414934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05640256507943688</v>
+        <v>0.05657742028667603</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.355077628949075</v>
+        <v>0.35642889486648</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.316267163813555</v>
+        <v>0.3216788281338127</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3850414508808293</v>
+        <v>0.3857033448889136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1202053995015682</v>
+        <v>0.1234164732035595</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3881506035388176</v>
+        <v>0.3889424255544116</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3634602428386925</v>
+        <v>0.3691655963819581</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4647124790922543</v>
+        <v>0.471915221983895</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1266402034530571</v>
+        <v>0.1256927639231018</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4939377397936952</v>
+        <v>0.4915568191005227</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3225730887194027</v>
+        <v>0.3198827752017001</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4055592059925592</v>
+        <v>0.4075205856247917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1096975784049197</v>
+        <v>0.1098984439500531</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4299795813265093</v>
+        <v>0.4303874100543413</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3080185674042963</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3516269743603206</v>
+        <v>0.3516269743603205</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1991371092216889</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.122642467886644</v>
+        <v>0.1212772948990142</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.200776672628482</v>
+        <v>0.1966318591842198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.155609568335967</v>
+        <v>0.1545241450048765</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1947997019079403</v>
+        <v>0.1919984091282177</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1898137121073517</v>
+        <v>0.1902541575962761</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2339716461530974</v>
+        <v>0.2320411291351845</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2555432801152248</v>
+        <v>0.2564777228822865</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3078158748209202</v>
+        <v>0.3019199624353333</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1662759165021849</v>
+        <v>0.1641127311075227</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2330068320291389</v>
+        <v>0.2311208458262952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2177272935237824</v>
+        <v>0.2182173155916675</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2615956058364542</v>
+        <v>0.2619537713274632</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.20747129351963</v>
+        <v>0.2068735532213971</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3062075696324665</v>
+        <v>0.3046466655319056</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2612259642967993</v>
+        <v>0.2481608564826706</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2798758697483179</v>
+        <v>0.27696147231906</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2943042752667232</v>
+        <v>0.2976640585069861</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3382060542196034</v>
+        <v>0.3410341806151603</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3659134071113853</v>
+        <v>0.3722030391480314</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3981676065825233</v>
+        <v>0.3933907684446111</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2315089195415186</v>
+        <v>0.2345051123539814</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3074164475046461</v>
+        <v>0.3107826151240766</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2930726076994525</v>
+        <v>0.2951182733484021</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3246938661830412</v>
+        <v>0.3229805405983307</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1258881170916377</v>
+        <v>0.1272787977383862</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1809651313502274</v>
+        <v>0.1821129623111496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2354869768773676</v>
+        <v>0.2356158966236613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2635032723826481</v>
+        <v>0.2636511367209724</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2049877070758214</v>
+        <v>0.2015338766114619</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2568930984280843</v>
+        <v>0.2550237922708402</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2693731426207617</v>
+        <v>0.2659866345122806</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3360776152998263</v>
+        <v>0.3346088755179697</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1714824814409775</v>
+        <v>0.1736784266250741</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2267042071971395</v>
+        <v>0.2278320016721967</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2618897951575397</v>
+        <v>0.2624804689838329</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3083061038287154</v>
+        <v>0.3105069318563134</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1862754874398471</v>
+        <v>0.1869133664794333</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2488847807244881</v>
+        <v>0.2499913551946244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3072937978688657</v>
+        <v>0.3067735373971932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3375810575909637</v>
+        <v>0.3387863516931431</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2669064149532494</v>
+        <v>0.2655936777994466</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3308407400160068</v>
+        <v>0.3268228480463707</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3412961278273928</v>
+        <v>0.33827053665276</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4011915784311287</v>
+        <v>0.4011395124425094</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2179950541697272</v>
+        <v>0.2173003657629886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2751210801579412</v>
+        <v>0.279302228514445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3133122557162735</v>
+        <v>0.3117881267734045</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3595931517393686</v>
+        <v>0.3584216476760986</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1962863544482507</v>
+        <v>0.1952176286694856</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1971222234829694</v>
+        <v>0.1980374458272498</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1594672792700259</v>
+        <v>0.162272284842162</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08956988395709629</v>
+        <v>0.09027049550416034</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2064284322468182</v>
+        <v>0.2099579554778779</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2326960777546424</v>
+        <v>0.2321927838576499</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1751781182922815</v>
+        <v>0.1722238184452656</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.123776367723397</v>
+        <v>0.1222808660415726</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2101453923840389</v>
+        <v>0.2098039110714285</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2245200095455349</v>
+        <v>0.222962605213829</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.175599925208621</v>
+        <v>0.1738912012659586</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1118422831768541</v>
+        <v>0.1115715378424996</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2622520648622521</v>
+        <v>0.2590432508887585</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2584362169773379</v>
+        <v>0.2594007354087575</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2164059688096556</v>
+        <v>0.2173354455332023</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1324347631204142</v>
+        <v>0.1330462918180418</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.269153119815369</v>
+        <v>0.2709539311344327</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2959268494897683</v>
+        <v>0.2983311988628994</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2342460764968056</v>
+        <v>0.2350526188699049</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1665089804458004</v>
+        <v>0.1662608113191731</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2548463363142642</v>
+        <v>0.2549565162118652</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2701260884736161</v>
+        <v>0.2678885373534601</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2158779437789855</v>
+        <v>0.2157362428572659</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1422864265389459</v>
+        <v>0.1427125013904977</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.2852418640555737</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3071732958456827</v>
+        <v>0.3071732958456826</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2133646904423134</v>
@@ -1785,7 +1785,7 @@
         <v>0.259270455271246</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.2769846850682214</v>
+        <v>0.2769846850682213</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2447058896248633</v>
+        <v>0.2448535158396208</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2185916074531188</v>
+        <v>0.2172433561607853</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2290175119960609</v>
+        <v>0.2306638121045545</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3104001888165699</v>
+        <v>0.309624652132137</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2694438467051394</v>
+        <v>0.2696751715542989</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2942042599296658</v>
+        <v>0.2929444481281129</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2812791370273909</v>
+        <v>0.2822870209652711</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2485149825492851</v>
+        <v>0.2487027596238129</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2662657736395296</v>
+        <v>0.2666667373365597</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2746936813146051</v>
+        <v>0.2751829376834246</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2477010751105728</v>
+        <v>0.2479962988855136</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2602292004054756</v>
+        <v>0.2617179488535311</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3425454331336784</v>
+        <v>0.3413898471918803</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3001694791170503</v>
+        <v>0.3012940722239597</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3218693761882977</v>
+        <v>0.3192707727500052</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3040333240577391</v>
+        <v>0.3048555372280405</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.269457914072071</v>
+        <v>0.270131333701351</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2866110853565091</v>
+        <v>0.2867931468849968</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33272</v>
+        <v>32183</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>61008</v>
+        <v>62230</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>79778</v>
+        <v>80103</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>82886</v>
+        <v>82962</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28105</v>
+        <v>29795</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>84217</v>
+        <v>86824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>87250</v>
+        <v>87750</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>94695</v>
+        <v>93158</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>68431</v>
+        <v>68051</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>157503</v>
+        <v>155422</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>176303</v>
+        <v>176389</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>184658</v>
+        <v>183143</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58527</v>
+        <v>57529</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>92678</v>
+        <v>92154</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>114196</v>
+        <v>112830</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>116132</v>
+        <v>116261</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>53593</v>
+        <v>53514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>120648</v>
+        <v>121065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>120084</v>
+        <v>120478</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>119848</v>
+        <v>119323</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>104362</v>
+        <v>103994</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>204947</v>
+        <v>204983</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>222623</v>
+        <v>222535</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>226099</v>
+        <v>226021</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>97235</v>
+        <v>97901</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>118346</v>
+        <v>120355</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>113186</v>
+        <v>112521</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>100136</v>
+        <v>97376</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>150616</v>
+        <v>153252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>159038</v>
+        <v>163323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>169897</v>
+        <v>171740</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>129655</v>
+        <v>127755</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>259363</v>
+        <v>259840</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>292426</v>
+        <v>294781</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>296105</v>
+        <v>292885</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>239729</v>
+        <v>241411</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>136628</v>
+        <v>137413</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>160093</v>
+        <v>163852</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>152424</v>
+        <v>154169</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>143727</v>
+        <v>142830</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>193742</v>
+        <v>195027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>208547</v>
+        <v>209033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>216639</v>
+        <v>216589</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>165393</v>
+        <v>163257</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>318067</v>
+        <v>316403</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>355854</v>
+        <v>356121</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>355356</v>
+        <v>354944</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>296634</v>
+        <v>295268</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28146</v>
+        <v>29207</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>80268</v>
+        <v>80762</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31209</v>
+        <v>30033</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>69698</v>
+        <v>70635</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>53335</v>
+        <v>53535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94423</v>
+        <v>93974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>58787</v>
+        <v>58272</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>98128</v>
+        <v>97475</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>89389</v>
+        <v>89477</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>183138</v>
+        <v>183966</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>95654</v>
+        <v>95156</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>177994</v>
+        <v>177416</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>52777</v>
+        <v>54029</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>113221</v>
+        <v>114578</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54515</v>
+        <v>53393</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>97937</v>
+        <v>99257</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>81970</v>
+        <v>81948</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>130154</v>
+        <v>128639</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>88851</v>
+        <v>88392</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126343</v>
+        <v>125495</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>126718</v>
+        <v>128276</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>231786</v>
+        <v>231817</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>134621</v>
+        <v>134843</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>218285</v>
+        <v>219005</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34145</v>
+        <v>34683</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>102084</v>
+        <v>101049</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>108667</v>
+        <v>107439</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>80813</v>
+        <v>81752</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54260</v>
+        <v>54668</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>154767</v>
+        <v>151411</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>139517</v>
+        <v>139850</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>136163</v>
+        <v>135639</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94830</v>
+        <v>97384</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>265824</v>
+        <v>265029</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>258963</v>
+        <v>259867</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>230536</v>
+        <v>228721</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>59703</v>
+        <v>60333</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>138402</v>
+        <v>139089</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146386</v>
+        <v>147504</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>123943</v>
+        <v>124846</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>83250</v>
+        <v>83640</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>192712</v>
+        <v>193239</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>178748</v>
+        <v>179884</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>174001</v>
+        <v>174451</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>133442</v>
+        <v>136445</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>319782</v>
+        <v>320081</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>312920</v>
+        <v>313197</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>286587</v>
+        <v>284451</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38701</v>
+        <v>39681</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>53205</v>
+        <v>53422</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9970</v>
+        <v>9876</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>56139</v>
+        <v>57536</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>48975</v>
+        <v>48611</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>72295</v>
+        <v>73737</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11121</v>
+        <v>11110</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>90890</v>
+        <v>91190</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>94594</v>
+        <v>95730</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>134273</v>
+        <v>134790</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>24242</v>
+        <v>24317</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>153587</v>
+        <v>154171</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>64300</v>
+        <v>65400</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>81867</v>
+        <v>82007</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25390</v>
+        <v>26068</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>79829</v>
+        <v>79992</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75118</v>
+        <v>76297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>101633</v>
+        <v>103208</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27682</v>
+        <v>27475</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>112064</v>
+        <v>111524</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>132249</v>
+        <v>131146</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>174925</v>
+        <v>175771</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>47149</v>
+        <v>47235</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>185985</v>
+        <v>186161</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>32976</v>
+        <v>32609</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>55009</v>
+        <v>53873</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40944</v>
+        <v>40659</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>52734</v>
+        <v>51975</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>52419</v>
+        <v>52541</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>65519</v>
+        <v>64979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>69546</v>
+        <v>69800</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>81064</v>
+        <v>79511</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>90627</v>
+        <v>89448</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>129089</v>
+        <v>128044</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>116544</v>
+        <v>116806</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>139707</v>
+        <v>139899</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>55784</v>
+        <v>55624</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>83895</v>
+        <v>83467</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>68735</v>
+        <v>65297</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>75764</v>
+        <v>74975</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>81275</v>
+        <v>82203</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>94708</v>
+        <v>95500</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>99583</v>
+        <v>101295</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>104858</v>
+        <v>103600</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>126181</v>
+        <v>127814</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>170312</v>
+        <v>172177</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>156874</v>
+        <v>157969</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>173406</v>
+        <v>172491</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>76285</v>
+        <v>77127</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>119415</v>
+        <v>120172</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>153582</v>
+        <v>153667</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>189640</v>
+        <v>189746</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>130131</v>
+        <v>127939</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>177922</v>
+        <v>176627</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>185690</v>
+        <v>183355</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>256820</v>
+        <v>255697</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>212775</v>
+        <v>215499</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>306611</v>
+        <v>308136</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>351334</v>
+        <v>352126</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>457482</v>
+        <v>460748</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>112878</v>
+        <v>113264</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>164234</v>
+        <v>164964</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>200414</v>
+        <v>200075</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>242953</v>
+        <v>243820</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>169439</v>
+        <v>168606</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>229138</v>
+        <v>226355</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>235269</v>
+        <v>233184</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>306578</v>
+        <v>306538</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>270487</v>
+        <v>269625</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>372093</v>
+        <v>377748</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>420318</v>
+        <v>418274</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>533584</v>
+        <v>531846</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>142638</v>
+        <v>141862</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>153002</v>
+        <v>153712</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>124159</v>
+        <v>126342</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>71483</v>
+        <v>72042</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>160311</v>
+        <v>163052</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>190533</v>
+        <v>190121</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>144537</v>
+        <v>142100</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>102661</v>
+        <v>101421</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>315907</v>
+        <v>315394</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>358106</v>
+        <v>355622</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>281604</v>
+        <v>278864</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>182021</v>
+        <v>181581</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>190575</v>
+        <v>188243</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>200592</v>
+        <v>201341</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>168490</v>
+        <v>169214</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>105692</v>
+        <v>106181</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>209022</v>
+        <v>210421</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>242307</v>
+        <v>244276</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>193273</v>
+        <v>193939</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>138104</v>
+        <v>137898</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>383105</v>
+        <v>383271</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>430847</v>
+        <v>427278</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>346197</v>
+        <v>345970</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>231569</v>
+        <v>232262</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>835318</v>
+        <v>835822</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>740497</v>
+        <v>735930</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>785183</v>
+        <v>790827</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1101597</v>
+        <v>1098845</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>951137</v>
+        <v>951954</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1066079</v>
+        <v>1061514</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1958411</v>
+        <v>1965428</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1719124</v>
+        <v>1720423</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1877729</v>
+        <v>1880557</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>937683</v>
+        <v>939353</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>839108</v>
+        <v>840108</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>892192</v>
+        <v>897296</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1215679</v>
+        <v>1211578</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1059599</v>
+        <v>1063569</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1166327</v>
+        <v>1156910</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2116837</v>
+        <v>2122562</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1863999</v>
+        <v>1868657</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2021206</v>
+        <v>2022490</v>
       </c>
     </row>
     <row r="40">
